--- a/code/resultados_distributivos_com_arrecadacao.xlsx
+++ b/code/resultados_distributivos_com_arrecadacao.xlsx
@@ -1,21 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klein/Documents/GitHub/imposto_minimo/code/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0637B184-D7D9-1546-846E-45C9FC0EB36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Cenário</t>
+  </si>
+  <si>
+    <t>Gini</t>
+  </si>
+  <si>
+    <t>Bottom_50</t>
+  </si>
+  <si>
+    <t>Top_9</t>
+  </si>
+  <si>
+    <t>Top_1</t>
+  </si>
+  <si>
+    <t>Arrecadacao_BR</t>
+  </si>
+  <si>
+    <t>Dif_Arrecadacao_BR</t>
+  </si>
+  <si>
+    <t>Regime Atual</t>
+  </si>
+  <si>
+    <t>Nova Proposta</t>
+  </si>
+  <si>
+    <t>Nova c/ Aliq. Máxima</t>
+  </si>
+  <si>
+    <t>Com taxação de 10% de dividendos ao exterior</t>
+  </si>
+  <si>
+    <t>Efeito total na arrecadação</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +123,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +175,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +209,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +244,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,123 +420,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Cenário</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Gini</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Bottom_50</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Top_9</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Top_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Arrecadacao_BR</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Dif_Arrecadacao_BR</t>
-        </is>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Regime Atual</t>
-        </is>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.618162611523319</v>
+        <v>0.61816261152331897</v>
       </c>
       <c r="C2">
-        <v>0.1406011930434573</v>
+        <v>0.14060119304345731</v>
       </c>
       <c r="D2">
-        <v>0.5498302166228471</v>
+        <v>0.54983021662284715</v>
       </c>
       <c r="E2">
-        <v>0.3171011486803854</v>
+        <v>0.31710114868038541</v>
       </c>
       <c r="F2">
-        <v>357.4555801326443</v>
+        <v>357.45558013264429</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nova Proposta</t>
-        </is>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6171078248385818</v>
+        <v>0.61710782483858184</v>
       </c>
       <c r="C3">
-        <v>0.1404364095796103</v>
+        <v>0.14043640957961029</v>
       </c>
       <c r="D3">
-        <v>0.5474273572446325</v>
+        <v>0.54742735724463254</v>
       </c>
       <c r="E3">
-        <v>0.3102399477250556</v>
+        <v>0.31023994772505559</v>
       </c>
       <c r="F3">
-        <v>349.7947322855542</v>
+        <v>349.79473228555418</v>
       </c>
       <c r="G3">
-        <v>-7.660847847090054</v>
+        <v>-7.6608478470900536</v>
+      </c>
+      <c r="H3">
+        <v>8.9</v>
+      </c>
+      <c r="I3">
+        <f>G3+H3</f>
+        <v>1.2391521529099467</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Nova c/ Aliq. Máxima</t>
-        </is>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6157973779699736</v>
+        <v>0.61579737796997358</v>
       </c>
       <c r="C4">
         <v>0.140922558912012</v>
       </c>
       <c r="D4">
-        <v>0.5458606845505837</v>
+        <v>0.54586068455058367</v>
       </c>
       <c r="E4">
-        <v>0.3078522023395502</v>
+        <v>0.30785220233955018</v>
       </c>
       <c r="F4">
-        <v>372.3444644560967</v>
+        <v>372.34446445609672</v>
       </c>
       <c r="G4">
         <v>14.88888432345237</v>
+      </c>
+      <c r="H4">
+        <v>8.9</v>
+      </c>
+      <c r="I4">
+        <f>G4+H4</f>
+        <v>23.788884323452372</v>
       </c>
     </row>
   </sheetData>

--- a/code/resultados_distributivos_com_arrecadacao.xlsx
+++ b/code/resultados_distributivos_com_arrecadacao.xlsx
@@ -1,81 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klein/Documents/GitHub/imposto_minimo/code/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0637B184-D7D9-1546-846E-45C9FC0EB36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Cenário</t>
-  </si>
-  <si>
-    <t>Gini</t>
-  </si>
-  <si>
-    <t>Bottom_50</t>
-  </si>
-  <si>
-    <t>Top_9</t>
-  </si>
-  <si>
-    <t>Top_1</t>
-  </si>
-  <si>
-    <t>Arrecadacao_BR</t>
-  </si>
-  <si>
-    <t>Dif_Arrecadacao_BR</t>
-  </si>
-  <si>
-    <t>Regime Atual</t>
-  </si>
-  <si>
-    <t>Nova Proposta</t>
-  </si>
-  <si>
-    <t>Nova c/ Aliq. Máxima</t>
-  </si>
-  <si>
-    <t>Com taxação de 10% de dividendos ao exterior</t>
-  </si>
-  <si>
-    <t>Efeito total na arrecadação</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,131 +350,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Cenário</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Gini</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Bottom_50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Top_9</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Top_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Arrecadacao_BR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Dif_Arrecadacao_BR</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Regime Atual</t>
+        </is>
       </c>
       <c r="B2">
-        <v>0.61816261152331897</v>
+        <v>0.618162611523319</v>
       </c>
       <c r="C2">
-        <v>0.14060119304345731</v>
+        <v>0.1406011930434573</v>
       </c>
       <c r="D2">
-        <v>0.54983021662284715</v>
+        <v>0.5498302166228471</v>
       </c>
       <c r="E2">
-        <v>0.31710114868038541</v>
+        <v>0.3171011486803854</v>
       </c>
       <c r="F2">
-        <v>357.45558013264429</v>
+        <v>357.4555801326443</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nova Proposta</t>
+        </is>
       </c>
       <c r="B3">
-        <v>0.61710782483858184</v>
+        <v>0.6164791849807775</v>
       </c>
       <c r="C3">
-        <v>0.14043640957961029</v>
+        <v>0.1407758753373498</v>
       </c>
       <c r="D3">
-        <v>0.54742735724463254</v>
+        <v>0.5463333894084782</v>
       </c>
       <c r="E3">
-        <v>0.31023994772505559</v>
+        <v>0.3106623877745653</v>
       </c>
       <c r="F3">
-        <v>349.79473228555418</v>
+        <v>365.5570454426981</v>
       </c>
       <c r="G3">
-        <v>-7.6608478470900536</v>
-      </c>
-      <c r="H3">
-        <v>8.9</v>
-      </c>
-      <c r="I3">
-        <f>G3+H3</f>
-        <v>1.2391521529099467</v>
+        <v>8.101465310053811</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nova c/ Aliq. Máxima</t>
+        </is>
       </c>
       <c r="B4">
-        <v>0.61579737796997358</v>
+        <v>0.6152884960347282</v>
       </c>
       <c r="C4">
-        <v>0.140922558912012</v>
+        <v>0.1412179755594851</v>
       </c>
       <c r="D4">
-        <v>0.54586068455058367</v>
+        <v>0.5449086700889407</v>
       </c>
       <c r="E4">
-        <v>0.30785220233955018</v>
+        <v>0.3084975544125931</v>
       </c>
       <c r="F4">
-        <v>372.34446445609672</v>
+        <v>385.9713433399173</v>
       </c>
       <c r="G4">
-        <v>14.88888432345237</v>
-      </c>
-      <c r="H4">
-        <v>8.9</v>
-      </c>
-      <c r="I4">
-        <f>G4+H4</f>
-        <v>23.788884323452372</v>
+        <v>28.51576320727304</v>
       </c>
     </row>
   </sheetData>
